--- a/www/ig/fhir/mesures/3.0.0/StructureDefinition-mes-observation-waist-circumference.xlsx
+++ b/www/ig/fhir/mesures/3.0.0/StructureDefinition-mes-observation-waist-circumference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="644">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T16:32:25+01:00</t>
+    <t>2023-03-23T15:01:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1603,7 +1603,10 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Non utilisé</t>
+    <t>Observed body part</t>
+  </si>
+  <si>
+    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
@@ -1629,6 +1632,12 @@
   </si>
   <si>
     <t>Observation.method</t>
+  </si>
+  <si>
+    <t>How it was done</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to perform the observation.</t>
   </si>
   <si>
     <t>Only used if not implicit in code for Observation.code.</t>
@@ -1830,6 +1839,12 @@
     <t>Observation.referenceRange.appliesTo</t>
   </si>
   <si>
+    <t>Reference range population</t>
+  </si>
+  <si>
+    <t>Codes to indicate the target population this reference range applies to.  For example, a reference range may be based on the normal population or a particular sex or race.  Multiple `appliesTo`  are interpreted as an "AND" of the target populations.  For example, to represent a target population of African American females, both a code of female and a code for African American would be used.</t>
+  </si>
+  <si>
     <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal population is assumed.</t>
   </si>
   <si>
@@ -1880,6 +1895,12 @@
 </t>
   </si>
   <si>
+    <t>Used when reporting vital signs panel components</t>
+  </si>
+  <si>
+    <t>Used when reporting vital signs panel components.</t>
+  </si>
+  <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
@@ -1894,6 +1915,12 @@
   <si>
     <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
 </t>
+  </si>
+  <si>
+    <t>Related measurements the observation is made from</t>
+  </si>
+  <si>
+    <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.</t>
@@ -10597,10 +10624,10 @@
         <v>508</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10629,10 +10656,10 @@
         <v>155</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -10668,27 +10695,27 @@
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10714,16 +10741,16 @@
         <v>249</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -10751,10 +10778,10 @@
         <v>155</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -10772,7 +10799,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -10793,10 +10820,10 @@
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>78</v>
@@ -10807,10 +10834,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10833,16 +10860,16 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10892,7 +10919,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10910,27 +10937,27 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10953,16 +10980,16 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11012,7 +11039,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -11030,27 +11057,27 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11073,19 +11100,19 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -11134,7 +11161,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -11146,7 +11173,7 @@
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
@@ -11155,10 +11182,10 @@
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>78</v>
@@ -11169,10 +11196,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11287,10 +11314,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11407,14 +11434,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11436,10 +11463,10 @@
         <v>108</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>111</v>
@@ -11494,7 +11521,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -11529,10 +11556,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11555,13 +11582,13 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11612,7 +11639,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -11621,7 +11648,7 @@
         <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>122</v>
@@ -11633,10 +11660,10 @@
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>78</v>
@@ -11647,10 +11674,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11673,13 +11700,13 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11730,7 +11757,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -11739,7 +11766,7 @@
         <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>122</v>
@@ -11751,10 +11778,10 @@
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>78</v>
@@ -11765,10 +11792,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11794,16 +11821,16 @@
         <v>249</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -11831,10 +11858,10 @@
         <v>169</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>78</v>
@@ -11852,7 +11879,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -11870,10 +11897,10 @@
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>497</v>
@@ -11887,10 +11914,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11916,16 +11943,16 @@
         <v>249</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>508</v>
+        <v>581</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>508</v>
+        <v>582</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11953,28 +11980,28 @@
         <v>155</v>
       </c>
       <c r="Y80" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF80" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -11992,10 +12019,10 @@
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>497</v>
@@ -12009,10 +12036,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12035,17 +12062,17 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -12094,7 +12121,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -12118,7 +12145,7 @@
         <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>78</v>
@@ -12129,10 +12156,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12158,10 +12185,10 @@
         <v>101</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12212,7 +12239,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -12233,10 +12260,10 @@
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>78</v>
@@ -12247,10 +12274,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12273,16 +12300,16 @@
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>508</v>
+        <v>599</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>508</v>
+        <v>600</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12332,7 +12359,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -12353,10 +12380,10 @@
         <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>78</v>
@@ -12367,10 +12394,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12393,16 +12420,16 @@
         <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>508</v>
+        <v>606</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>508</v>
+        <v>607</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12452,7 +12479,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -12473,10 +12500,10 @@
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>78</v>
@@ -12487,10 +12514,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12513,19 +12540,19 @@
         <v>89</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>78</v>
@@ -12574,7 +12601,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -12586,7 +12613,7 @@
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -12595,10 +12622,10 @@
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>78</v>
@@ -12609,10 +12636,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12727,10 +12754,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12847,14 +12874,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12876,10 +12903,10 @@
         <v>108</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>111</v>
@@ -12934,7 +12961,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -12969,10 +12996,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12998,16 +13025,16 @@
         <v>249</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>78</v>
@@ -13056,7 +13083,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>88</v>
@@ -13074,7 +13101,7 @@
         <v>78</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>343</v>
@@ -13091,10 +13118,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13117,16 +13144,16 @@
         <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>407</v>
@@ -13157,10 +13184,10 @@
         <v>241</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>78</v>
@@ -13178,7 +13205,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -13187,7 +13214,7 @@
         <v>88</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>122</v>
@@ -13196,7 +13223,7 @@
         <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>412</v>
@@ -13213,10 +13240,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13242,13 +13269,13 @@
         <v>249</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>471</v>
@@ -13300,7 +13327,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -13309,7 +13336,7 @@
         <v>88</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>122</v>
@@ -13335,10 +13362,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13422,7 +13449,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
@@ -13457,10 +13484,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13486,16 +13513,16 @@
         <v>79</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>78</v>
@@ -13544,7 +13571,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
@@ -13565,10 +13592,10 @@
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>78</v>
